--- a/DOCs/Connections.xlsx
+++ b/DOCs/Connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="5715" windowHeight="4620"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="5715" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Connections" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>T_DO</t>
   </si>
@@ -271,6 +271,42 @@
   </si>
   <si>
     <t>DO</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a0</t>
   </si>
 </sst>
 </file>
@@ -296,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -616,17 +658,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -642,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -686,11 +717,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -721,6 +751,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1030,7 +1064,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1078,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="1"/>
@@ -1054,15 +1088,18 @@
       <c r="D1" s="11">
         <v>1</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1072,13 +1109,16 @@
       <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1088,13 +1128,16 @@
       <c r="D3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="2"/>
       <c r="C4" s="12" t="s">
         <v>79</v>
@@ -1102,14 +1145,16 @@
       <c r="D4" s="12">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
         <v>2</v>
@@ -1117,13 +1162,16 @@
       <c r="D5" s="12">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1135,13 +1183,16 @@
       <c r="D6" s="14">
         <v>6</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1151,11 +1202,12 @@
       <c r="D7" s="10">
         <v>7</v>
       </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1165,13 +1217,16 @@
       <c r="D8" s="15">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1181,13 +1236,16 @@
       <c r="D9" s="15">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1197,13 +1255,16 @@
       <c r="D10" s="15">
         <v>10</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1213,13 +1274,16 @@
       <c r="D11" s="17">
         <v>11</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1229,13 +1293,16 @@
       <c r="D12" s="16">
         <v>12</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="1"/>
       <c r="C13" s="32" t="s">
         <v>8</v>
@@ -1243,10 +1310,13 @@
       <c r="D13" s="8">
         <v>13</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1256,88 +1326,118 @@
       <c r="D14" s="9">
         <v>14</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="38" t="s">
+      <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="47"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="5"/>
       <c r="C17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="19">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="6"/>
       <c r="C20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="47"/>
+      <c r="E21" s="7"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>69</v>
       </c>
@@ -1345,13 +1445,14 @@
         <v>70</v>
       </c>
       <c r="D22" s="23"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="23" t="s">
         <v>69</v>
       </c>
@@ -1359,10 +1460,11 @@
         <v>71</v>
       </c>
       <c r="D23" s="23"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
